--- a/doc/Design.xlsx
+++ b/doc/Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="26835" windowHeight="14880"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="26835" windowHeight="14880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Proxy" sheetId="1" r:id="rId1"/>
@@ -1029,7 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
@@ -1443,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1556,6 +1556,11 @@
         <v>44</v>
       </c>
     </row>
+    <row r="8" spans="2:10">
+      <c r="F8" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="9" spans="2:10">
       <c r="B9" s="22" t="s">
         <v>50</v>
@@ -1569,8 +1574,8 @@
       <c r="E9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>33</v>
+      <c r="F9" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>49</v>
@@ -1585,9 +1590,6 @@
       </c>
       <c r="C10" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Design.xlsx
+++ b/doc/Design.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="26835" windowHeight="14880" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="26835" windowHeight="14880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Proxy" sheetId="1" r:id="rId1"/>
     <sheet name="Action" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Naming" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="107">
   <si>
     <t>Client</t>
   </si>
@@ -428,6 +428,39 @@
   </si>
   <si>
     <t>onPut(nil)</t>
+  </si>
+  <si>
+    <t>Gui</t>
+  </si>
+  <si>
+    <t>Manages</t>
+  </si>
+  <si>
+    <t>Background Job</t>
+  </si>
+  <si>
+    <t>Live name</t>
+  </si>
+  <si>
+    <t>Gui Control</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>ORM</t>
+  </si>
+  <si>
+    <t>UserFul, HR, Manager, Administrator, Admin, Dispetcher, Supervisor, Dispatcher, expediter, executive</t>
+  </si>
+  <si>
+    <t>Tasker, DynoMan, Foreman</t>
+  </si>
+  <si>
+    <t>Modular, ExtensionFul, Extensibility</t>
   </si>
 </sst>
 </file>
@@ -616,7 +649,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -730,6 +763,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -1443,7 +1477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -1599,12 +1633,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C2:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4">
+      <c r="C2" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/Design.xlsx
+++ b/doc/Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="26835" windowHeight="14880" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="26835" windowHeight="14880"/>
   </bookViews>
   <sheets>
     <sheet name="Proxy" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="122">
   <si>
     <t>Client</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Somewhere</t>
-  </si>
-  <si>
-    <t>Storage</t>
   </si>
   <si>
     <t>this.find(key, value)</t>
@@ -71,13 +68,7 @@
     <t>UserFul</t>
   </si>
   <si>
-    <t>reg.get("User", login, onGet)</t>
-  </si>
-  <si>
     <t>LoginForm</t>
-  </si>
-  <si>
-    <t>bob = new User(login, pass, onAuth)</t>
   </si>
   <si>
     <t>alan = new User(login, onLoad)</t>
@@ -349,9 +340,6 @@
 fire("model:updated")</t>
   </si>
   <si>
-    <t>reg.get("User", login, pass, onGet)</t>
-  </si>
-  <si>
     <t>this.get(model, data)
 save callBack to be registered on 'green' reply</t>
   </si>
@@ -375,11 +363,6 @@
 save callBack to be registered on 'Ok' reply</t>
   </si>
   <si>
-    <t>if ("dedicated")
-onGet(data)
-registerCb(model, name, onGet)</t>
-  </si>
-  <si>
     <t>record.save()</t>
   </si>
   <si>
@@ -389,9 +372,6 @@
 Model.put(id, options)</t>
   </si>
   <si>
-    <t>reg.put("Model", name, options, onPut)</t>
-  </si>
-  <si>
     <t>record = new Record()</t>
   </si>
   <si>
@@ -417,13 +397,6 @@
     <t>store.findByName(name);</t>
   </si>
   <si>
-    <t>this.send(requester, "dedicated", model, id, data)
-save requester to send him updates</t>
-  </si>
-  <si>
-    <t>Model.get(data)</t>
-  </si>
-  <si>
     <t>return NotUpdated</t>
   </si>
   <si>
@@ -461,13 +434,89 @@
   </si>
   <si>
     <t>Modular, ExtensionFul, Extensibility</t>
+  </si>
+  <si>
+    <t>new User(login, pass, onAuth)</t>
+  </si>
+  <si>
+    <t>close login form (onAuth)
+update UserStatus widget on  "user:updated"
+UserFul.setCurrentUser on "user:auth"</t>
+  </si>
+  <si>
+    <t>this.find(name, "name")</t>
+  </si>
+  <si>
+    <t>onFind()</t>
+  </si>
+  <si>
+    <t>get manager from $app
+manager.get(data)</t>
+  </si>
+  <si>
+    <t>save requester to send him updates on this data</t>
+  </si>
+  <si>
+    <t>save requester to send him updates on this data
+broadcast changes</t>
+  </si>
+  <si>
+    <t>onGet(data)
+registerCb(model, id, onGet)
+//bob updater</t>
+  </si>
+  <si>
+    <t>onGet(data)
+registerCb(model, name, onGet)</t>
+  </si>
+  <si>
+    <t>AddContact form</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Modular</t>
+  </si>
+  <si>
+    <t>/module</t>
+  </si>
+  <si>
+    <t>ORM.User</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>proxy.put("Model", name, options, onPut)</t>
+  </si>
+  <si>
+    <t>proxy.get("User", login, pass, onGet)</t>
+  </si>
+  <si>
+    <t>proxy.get("User", login, onGet)</t>
+  </si>
+  <si>
+    <t>proxy.get({path: '/'})</t>
+  </si>
+  <si>
+    <t>fs.ls('/')</t>
+  </si>
+  <si>
+    <t>dbl click root directory</t>
+  </si>
+  <si>
+    <t>get('view.grid')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,8 +568,16 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -562,7 +619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -642,6 +699,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -649,12 +717,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -744,26 +809,35 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -1061,407 +1135,472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="3" customWidth="1"/>
-    <col min="4" max="6" width="34.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="2" customWidth="1"/>
+    <col min="4" max="6" width="35.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="27" t="s">
-        <v>24</v>
+      <c r="F1" s="39"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="26" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45">
+      <c r="A3" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21">
+      <c r="B6" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" ht="60" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45.75" customHeight="1">
+      <c r="A8" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="29" t="s">
+      <c r="D8" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="21">
+      <c r="B10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="75">
+      <c r="A11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="8" t="s">
+    <row r="12" spans="1:8" ht="60.75" customHeight="1">
+      <c r="A12" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="21">
+      <c r="B14" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="60">
-      <c r="A4" s="36" t="s">
+      <c r="E14" s="38"/>
+      <c r="F14" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45">
+      <c r="A15" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60">
+      <c r="A16" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="21">
+      <c r="B18" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="21">
-      <c r="B6" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="1:8" ht="60" customHeight="1">
-      <c r="A7" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="45.75" customHeight="1">
-      <c r="A8" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="G18" s="35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="21">
+      <c r="B22" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C22" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="21">
-      <c r="B10" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="75">
-      <c r="A11" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="60">
-      <c r="A12" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="C23" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="21">
-      <c r="B14" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="45">
-      <c r="A15" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="60">
-      <c r="A16" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="21">
-      <c r="B18" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>65</v>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="43" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D2:E2"/>
@@ -1483,147 +1622,147 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="21" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="21" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="21" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="22" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="21" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="45">
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="60">
+      <c r="J2" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="43.5" customHeight="1">
+      <c r="B3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="F7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="F8" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="2:10" ht="60">
-      <c r="J2" s="21" t="s">
+      <c r="D9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="43.5" customHeight="1">
-      <c r="B3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="F7" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="F8" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1635,7 +1774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1646,27 +1785,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:4">
-      <c r="C2" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>99</v>
+      <c r="C2" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="3:4">
@@ -1674,23 +1813,23 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Design.xlsx
+++ b/doc/Design.xlsx
@@ -819,15 +819,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,6 +828,15 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1143,7 +1143,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.140625" style="2" customWidth="1"/>
     <col min="4" max="6" width="35.140625" style="3" customWidth="1"/>
@@ -1152,16 +1152,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="38"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="26" t="s">
         <v>21</v>
       </c>
@@ -1173,10 +1173,10 @@
       <c r="C2" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="28" t="s">
         <v>68</v>
       </c>
@@ -1185,7 +1185,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="37" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -1208,7 +1208,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -1229,7 +1229,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="40" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="11"/>
@@ -1254,10 +1254,10 @@
       <c r="C6" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="38"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="28" t="s">
         <v>68</v>
       </c>
@@ -1267,7 +1267,7 @@
       <c r="H6" s="27"/>
     </row>
     <row r="7" spans="1:8" ht="60" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="37" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="32" t="s">
@@ -1293,7 +1293,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="45.75" customHeight="1">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -1319,7 +1319,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="40" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -1351,10 +1351,10 @@
       <c r="C10" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="38"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="35" t="s">
         <v>14</v>
       </c>
@@ -1363,7 +1363,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="75">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="37" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1386,7 +1386,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -1409,7 +1409,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="40" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -1438,10 +1438,10 @@
       <c r="C14" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="38"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="35" t="s">
         <v>14</v>
       </c>
@@ -1450,7 +1450,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="45">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="37" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1473,7 +1473,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="60">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -1496,7 +1496,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="40" t="s">
         <v>60</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -1525,10 +1525,10 @@
       <c r="C18" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="38"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="35" t="s">
         <v>62</v>
       </c>
@@ -1537,7 +1537,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="37" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1551,12 +1551,12 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="40" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1567,10 +1567,10 @@
       <c r="C22" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="38"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="35" t="s">
         <v>111</v>
       </c>
@@ -1579,7 +1579,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="37" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1587,12 +1587,12 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="40" t="s">
         <v>60</v>
       </c>
     </row>

--- a/doc/Design.xlsx
+++ b/doc/Design.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="26835" windowHeight="14880"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="26835" windowHeight="14880" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Proxy" sheetId="1" r:id="rId1"/>
     <sheet name="Action" sheetId="2" r:id="rId2"/>
     <sheet name="Naming" sheetId="3" r:id="rId3"/>
+    <sheet name="Test" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="135">
   <si>
     <t>Client</t>
   </si>
@@ -510,6 +511,47 @@
   </si>
   <si>
     <t>get('view.grid')</t>
+  </si>
+  <si>
+    <t>Store modified items</t>
+  </si>
+  <si>
+    <t>App.array</t>
+  </si>
+  <si>
+    <t>Item.property</t>
+  </si>
+  <si>
+    <t>undo</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>push(this)</t>
+  </si>
+  <si>
+    <t>this.modified = true</t>
+  </si>
+  <si>
+    <t>this.modified = false</t>
+  </si>
+  <si>
+    <t>array.indexOf(this)
+delete
+compact</t>
+  </si>
+  <si>
+    <t>array.each(item.put)</t>
+  </si>
+  <si>
+    <t>this.items.filter.each(item.put)</t>
   </si>
 </sst>
 </file>
@@ -717,7 +759,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -836,6 +878,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1137,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1775,7 +1820,7 @@
   <dimension ref="C2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1836,4 +1881,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45">
+      <c r="A5" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>